--- a/insumos/produccion_1999-2018_cuencas.xlsx
+++ b/insumos/produccion_1999-2018_cuencas.xlsx
@@ -68,7 +68,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -172,8 +172,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
